--- a/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.0.0/版本Bug和特性计划及评审表v5.0.0_马丁组.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -267,6 +267,38 @@
     <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>房源编辑日志信息完善</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图性能优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房流程优化房态图相关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨正全</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -382,6 +414,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -709,6 +742,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,12 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1083,7 +1116,7 @@
   <dimension ref="A1:T212"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1174,7 +1207,7 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1226,7 +1259,7 @@
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1257,9 +1290,15 @@
       <c r="L3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="13">
+        <v>42607</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22" t="s">
@@ -1272,7 +1311,7 @@
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -1324,7 +1363,7 @@
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1376,7 +1415,7 @@
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1428,7 +1467,7 @@
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="46" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1459,9 +1498,15 @@
       <c r="L7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42607</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22" t="s">
@@ -1474,23 +1519,51 @@
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="13">
+        <v>42602</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13">
+        <v>42602</v>
+      </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="J8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42611</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
+      <c r="R8" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="10"/>
     </row>
@@ -1498,23 +1571,51 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="13">
+        <v>42603</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="13">
+        <v>42603</v>
+      </c>
       <c r="I9" s="12"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42611</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="10"/>
     </row>
@@ -1522,23 +1623,51 @@
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="13">
+        <v>42607</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="13">
+        <v>42607</v>
+      </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42611</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="R10" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="10"/>
     </row>
@@ -1562,9 +1691,7 @@
       <c r="O11" s="14"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="R11" s="22"/>
       <c r="S11" s="18"/>
       <c r="T11" s="10"/>
     </row>
@@ -1588,9 +1715,7 @@
       <c r="O12" s="14"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="R12" s="22"/>
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
@@ -5756,28 +5881,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50"/>
     </row>
     <row r="3" spans="1:9" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
@@ -7031,36 +7156,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
